--- a/Verkaeufen.xlsx
+++ b/Verkaeufen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Projects\RechnungPython\src\File Operations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Projects\RechnungPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7591BF1-F78F-469F-8788-6C7B8EFAA154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D25594-BFBC-4749-A27E-63929898C7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Product</t>
   </si>
@@ -69,22 +69,31 @@
     <t>Ort</t>
   </si>
   <si>
-    <t>DELL WD19TBS</t>
-  </si>
-  <si>
-    <t>mit DELL 130W Netzteil und Versand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M&amp;C Präzisionstechnik GbR Fatih </t>
-  </si>
-  <si>
-    <t>Türkyilmaz</t>
-  </si>
-  <si>
-    <t>Robert-Bosch Straße</t>
-  </si>
-  <si>
-    <t>Reutlingen</t>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>Stück</t>
+  </si>
+  <si>
+    <t>DELL WD19TB</t>
+  </si>
+  <si>
+    <t>Dockingstation inkl Versand</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Thiele</t>
+  </si>
+  <si>
+    <t>Leonhardistr.</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>Diessen am Ammersee</t>
   </si>
 </sst>
 </file>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,19 +423,19 @@
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -440,78 +449,84 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
         <v>60</v>
       </c>
-      <c r="F2" s="1">
-        <v>45650</v>
-      </c>
       <c r="G2" s="1">
-        <v>45650</v>
+        <v>45662</v>
       </c>
       <c r="H2" s="1">
-        <v>45650</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+        <v>45662</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45679</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2">
-        <v>72760</v>
-      </c>
-      <c r="N2" t="s">
         <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2">
+        <v>86911</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Verkaeufen.xlsx
+++ b/Verkaeufen.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Projects\RechnungPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D25594-BFBC-4749-A27E-63929898C7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DA9900-AB7A-4B93-BA4E-DC1141A7BDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Product</t>
   </si>
@@ -75,25 +86,22 @@
     <t>Stück</t>
   </si>
   <si>
-    <t>DELL WD19TB</t>
-  </si>
-  <si>
-    <t>Dockingstation inkl Versand</t>
-  </si>
-  <si>
-    <t>Oliver</t>
-  </si>
-  <si>
-    <t>Thiele</t>
-  </si>
-  <si>
-    <t>Leonhardistr.</t>
-  </si>
-  <si>
-    <t>2b</t>
-  </si>
-  <si>
-    <t>Diessen am Ammersee</t>
+    <t>DELL WD19TBS Dockingstation</t>
+  </si>
+  <si>
+    <t>mit 130 W Dell Netzteil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Societe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Centralpay</t>
+  </si>
+  <si>
+    <t>Rue Edouard Vaillant</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire Tours</t>
   </si>
 </sst>
 </file>
@@ -414,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +492,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -493,22 +501,22 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>90.59</v>
       </c>
       <c r="G2" s="1">
-        <v>45662</v>
+        <v>45821</v>
       </c>
       <c r="H2" s="1">
-        <v>45662</v>
+        <v>45831</v>
       </c>
       <c r="I2" s="1">
-        <v>45679</v>
+        <v>45838</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -519,14 +527,14 @@
       <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>37000</v>
+      </c>
+      <c r="O2" t="s">
         <v>21</v>
-      </c>
-      <c r="N2">
-        <v>86911</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
